--- a/worksheet/IndividualWorkSheet(0517).xlsx
+++ b/worksheet/IndividualWorkSheet(0517).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sec\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFA4AFC-6E2D-459C-BAC7-5482C2B46D14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5E7DF9D-6B64-4EE8-BE68-06761CFA9926}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="경예지" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>할일</t>
   </si>
@@ -48,33 +48,119 @@
     <t>문제점</t>
   </si>
   <si>
+    <t>login gui를 완성함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login 버튼 입력 후의 진행 안 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login GUI 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login interface 구현 및 windowbuilder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login 버튼 클릭 후의 진행 안 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login interface 구현 및 windowbuilder 사용법 익히기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공고 게시 GUI 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공고 게시 GUI ( UI_notice_posting ) 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UI_notice_posting을 완성함 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결 미구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login 실패 시 텍스트 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login 실패 시 로그인 오류 문구 띄움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_gui를 개선함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위와 같음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main GUI 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 후 student와 manager의 main 화면 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main gui를 완성함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 이미지 파일을 확정하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 클래스 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공고, 장학금, 유저 관련 클래스 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>클래스를 작성 완료함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>세로 막대형1</t>
-  </si>
-  <si>
-    <t>세로 막대형2</t>
-  </si>
-  <si>
-    <t>세로 막대형3</t>
-  </si>
-  <si>
-    <t>세로 막대형4</t>
-  </si>
-  <si>
-    <t>세로 막대형5</t>
-  </si>
-  <si>
-    <t>세로 막대형6</t>
-  </si>
-  <si>
-    <t>클래스 작성 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">필요한 모든 클래스의 관계 정립 및 그에 대한 attribute 작성 완료. </t>
+    <t>공고 조회 GUI 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공고 조회 GUI 작성을 완료함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 클래스 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요한 모든 클래스의 관계 정립 및 그에 대한 Attribute 작성 완료.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공고 게시 및 조회 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공고 게시 및 조회 기능 구현 (Operation)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI와 Operation 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외상황 처리 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,12 +333,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F15" totalsRowShown="0">
   <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="세로 막대형1" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="세로 막대형2" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="세로 막대형3" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="세로 막대형4" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="세로 막대형5" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="세로 막대형6" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="할일" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="내용" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="할당일" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="완성일" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="결과" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="문제점" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -603,64 +689,100 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="5" max="5" width="26.36328125" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43594</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43594</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="40.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43599</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43599</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43601</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43602</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -668,7 +790,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="49.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -676,7 +798,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -684,7 +806,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -692,7 +814,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -700,7 +822,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -708,7 +830,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -716,7 +838,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -724,7 +846,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -732,7 +854,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -740,7 +862,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -763,12 +885,17 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F3"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -788,23 +915,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="43.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43594</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43594</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43599</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43599</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -812,7 +963,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -820,7 +971,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -828,7 +979,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -836,7 +987,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -844,7 +995,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -852,7 +1003,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -860,7 +1011,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -868,7 +1019,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -876,7 +1027,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -884,7 +1035,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -892,7 +1043,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -914,12 +1065,18 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="35.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.6328125" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -939,39 +1096,85 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
+    <row r="2" spans="1:6" ht="43.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43594</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43594</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43599</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43599</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43599</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43599</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43601</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43602</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -979,7 +1182,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -987,7 +1190,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -995,7 +1198,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1003,7 +1206,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1011,7 +1214,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1019,7 +1222,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1027,7 +1230,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1035,7 +1238,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1043,7 +1246,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1065,17 +1268,17 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="32.7265625" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1095,33 +1298,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2">
+        <v>43599</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43599</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2">
         <v>43601</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="2">
         <v>43602</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1129,7 +1342,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1137,7 +1350,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1145,7 +1358,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1153,7 +1366,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1161,7 +1374,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1169,7 +1382,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1177,7 +1390,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1185,7 +1398,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1193,7 +1406,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1201,7 +1414,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1209,7 +1422,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>

--- a/worksheet/IndividualWorkSheet(0517).xlsx
+++ b/worksheet/IndividualWorkSheet(0517).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sec\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5E7DF9D-6B64-4EE8-BE68-06761CFA9926}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C609E2-9A40-4AEB-995A-2FF10792D482}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="경예지" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>할일</t>
   </si>
@@ -120,47 +120,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>공고 조회 GUI 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공고 조회 GUI 작성을 완료함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공고 게시 및 조회 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공고 게시 및 조회 기능 구현 (Operation)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI와 Operation 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외상황 처리 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 메소드 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청 기능의 메소드를 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선발 메소드 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선발 기능의 메소드 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반만 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail 구현 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 구조 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>information, operation 소유관계 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 클래스 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>기본 클래스 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공고, 장학금, 유저 관련 클래스 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>클래스를 작성 완료함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공고 조회 GUI 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공고 조회 GUI 작성을 완료함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>필요 클래스 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>필요한 모든 클래스의 관계 정립 및 그에 대한 Attribute 작성 완료.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공고 게시 및 조회 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공고 게시 및 조회 기능 구현 (Operation)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI와 Operation 연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예외상황 처리 필요</t>
+  </si>
+  <si>
+    <t>0516 회의 결과 정리된 클래스 구조로 변경 (소유관계 변경 부분 제외)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,8 +246,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -692,17 +740,17 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
-    <col min="5" max="5" width="26.36328125" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -722,7 +770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -742,7 +790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="40.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -762,12 +810,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <v>43601</v>
@@ -776,13 +824,13 @@
         <v>43602</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="46.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -790,7 +838,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -798,7 +846,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -806,7 +854,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -814,7 +862,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -822,7 +870,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -830,7 +878,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -838,7 +886,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -846,7 +894,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -854,7 +902,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -862,7 +910,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -885,17 +933,17 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="5" max="5" width="21.7265625" customWidth="1"/>
-    <col min="6" max="6" width="20.6328125" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -915,7 +963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,7 +983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -955,7 +1003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -963,7 +1011,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -971,7 +1019,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -979,7 +1027,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -987,7 +1035,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -995,7 +1043,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1003,7 +1051,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1011,7 +1059,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1019,7 +1067,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1027,7 +1075,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1035,7 +1083,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1043,7 +1091,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1068,15 +1116,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" customWidth="1"/>
-    <col min="2" max="2" width="35.36328125" customWidth="1"/>
-    <col min="5" max="5" width="24.6328125" customWidth="1"/>
-    <col min="6" max="6" width="21.36328125" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1096,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="43.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1116,7 +1164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1136,12 +1184,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2">
         <v>43599</v>
@@ -1150,16 +1198,16 @@
         <v>43599</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2">
         <v>43601</v>
@@ -1168,13 +1216,13 @@
         <v>43602</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1182,7 +1230,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1190,7 +1238,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1198,7 +1246,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1206,7 +1254,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1214,7 +1262,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1222,7 +1270,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1230,7 +1278,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1238,7 +1286,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1246,7 +1294,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1268,17 +1316,18 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="32.7265625" customWidth="1"/>
-    <col min="5" max="5" width="21.7265625" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1298,75 +1347,117 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="5">
         <v>43599</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>43599</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43601</v>
+      </c>
+      <c r="D3" s="5">
+        <v>43602</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="2">
-        <v>43601</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2">
         <v>43602</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="2">
+        <v>43602</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
+    <row r="5" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43602</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43602</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43602</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43602</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
+    <row r="7" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="5">
+        <v>43602</v>
+      </c>
+      <c r="D7" s="5">
+        <v>43602</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1374,39 +1465,39 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1414,7 +1505,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1422,7 +1513,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
